--- a/tecnoencuentro.xlsx
+++ b/tecnoencuentro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="845" firstSheet="0" activeTab="24"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="878" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="IES Azahar " sheetId="1" state="visible" r:id="rId2"/>
@@ -27,8 +27,8 @@
     <sheet name="RoboEquipo" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="JJYH" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="RAM" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Los robochachis" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Asacal Almería 2" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Asacal Almería 2" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Los robochachis" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="IES Ciudad Dalias" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="IES Campos de Nijar" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="KlinWare " sheetId="24" state="visible" r:id="rId25"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="243">
   <si>
     <t>Nombre Equipo</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Puntos Ronda3</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Nombre y Apellidos</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t>Puntos Totales</t>
   </si>
   <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
     <t>Premios Especiales</t>
   </si>
   <si>
@@ -127,27 +136,24 @@
     <t>Software Libre</t>
   </si>
   <si>
-    <t>Emily White</t>
+    <t>Luís Artero Sáez</t>
   </si>
   <si>
     <t>Solución Matemática</t>
   </si>
   <si>
-    <t>Luís Artero Sáez</t>
+    <t>Luís Castaño Soler</t>
   </si>
   <si>
     <t>Premio Especial Jurado</t>
   </si>
   <si>
-    <t>Luís Castaño Soler</t>
+    <t>Giuliana Garibotti</t>
   </si>
   <si>
     <t>Gotzila (mas grande)</t>
   </si>
   <si>
-    <t>Giuliana Garibotti</t>
-  </si>
-  <si>
     <t>Hormiga (mas pequeño)</t>
   </si>
   <si>
@@ -181,12 +187,12 @@
     <t>Pulpi</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>Juana Maria Perez Cervantes</t>
   </si>
   <si>
+    <t>si</t>
+  </si>
+  <si>
     <t>Cristo Pérez Ponce</t>
   </si>
   <si>
@@ -238,33 +244,45 @@
     <t>Borja Sanchez</t>
   </si>
   <si>
+    <t>Jairo Sanchez</t>
+  </si>
+  <si>
+    <t>Jesus Cara Vizcaino</t>
+  </si>
+  <si>
     <t>Cardenal Cisneros Competición</t>
   </si>
   <si>
     <t>Albox</t>
   </si>
   <si>
+    <t>Antonio Muñoz Checa</t>
+  </si>
+  <si>
+    <t>Andrés Oller Segura</t>
+  </si>
+  <si>
+    <t>Carlos Martínez Martínez</t>
+  </si>
+  <si>
+    <t>Diego López Martínez</t>
+  </si>
+  <si>
+    <t>Cristian Gorreta Belmonte</t>
+  </si>
+  <si>
+    <t>Pedro Gómez Martínez</t>
+  </si>
+  <si>
+    <t>Francisco Garcia Gomez</t>
+  </si>
+  <si>
+    <t>Datronic</t>
+  </si>
+  <si>
     <t>Ambrosio Benedicto</t>
   </si>
   <si>
-    <t>Andrés Oller Segura</t>
-  </si>
-  <si>
-    <t>Carlos Martínez Martínez</t>
-  </si>
-  <si>
-    <t>Diego López Martínez</t>
-  </si>
-  <si>
-    <t>Cristian Gorreta Belmonte</t>
-  </si>
-  <si>
-    <t>Pedro Gómez Martínez</t>
-  </si>
-  <si>
-    <t>Datronic</t>
-  </si>
-  <si>
     <t>Jose Miguel Ortíz Pastor</t>
   </si>
   <si>
@@ -277,9 +295,6 @@
     <t>José Javier Sánchez del Águila</t>
   </si>
   <si>
-    <t>Cristi Muñoz Balázs</t>
-  </si>
-  <si>
     <t>Multirobot</t>
   </si>
   <si>
@@ -301,439 +316,400 @@
     <t>Ismael Portillo Giménez</t>
   </si>
   <si>
+    <t>JarosoB</t>
+  </si>
+  <si>
+    <t>Maria Tejeira</t>
+  </si>
+  <si>
+    <t>Reme</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Marcos Cintas Navarro</t>
+  </si>
+  <si>
+    <t>Manuel Esteban Uroz</t>
+  </si>
+  <si>
+    <t>Francisco Jesús Durán Latorre</t>
+  </si>
+  <si>
+    <t>Miguel Gerez de Paco</t>
+  </si>
+  <si>
+    <t>Los Tornados</t>
+  </si>
+  <si>
+    <t>Competicion</t>
+  </si>
+  <si>
+    <t>Maria Tejira</t>
+  </si>
+  <si>
+    <t>Victoria Hernández Mesas</t>
+  </si>
+  <si>
+    <t>Juan Andrés García Perez</t>
+  </si>
+  <si>
+    <t>Adrián Hernández Mesas</t>
+  </si>
+  <si>
+    <t>TRASHBOX</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Damián</t>
+  </si>
+  <si>
+    <t>Manuel López de Hierro Ruiz</t>
+  </si>
+  <si>
+    <t>Basilio Escudero Jiménez</t>
+  </si>
+  <si>
+    <t>Tomas Soto Cano</t>
+  </si>
+  <si>
+    <t>Fernando Jódar Rubio</t>
+  </si>
+  <si>
+    <t>Florin Catalín Baloiu</t>
+  </si>
+  <si>
+    <t>Pedro Aliaga Segura</t>
+  </si>
+  <si>
+    <t>Jose María Teruel Oller</t>
+  </si>
+  <si>
+    <t>Sugar X</t>
+  </si>
+  <si>
+    <t>Sorbas</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Rafael Cazorla</t>
+  </si>
+  <si>
+    <t>Agustina Mailen Grigoriadis</t>
+  </si>
+  <si>
+    <t>Yolanda Kate Eccles</t>
+  </si>
+  <si>
+    <t>Phoebe May Eccles</t>
+  </si>
+  <si>
+    <t>Marlon Nicolas Carrera Jara</t>
+  </si>
+  <si>
+    <t>Prince Robots</t>
+  </si>
+  <si>
+    <t>Maria Fenoy García</t>
+  </si>
+  <si>
+    <t>Pablo Ezequiel Grigoriadis</t>
+  </si>
+  <si>
+    <t>Mohamed Abioni</t>
+  </si>
+  <si>
+    <t>Alejandro Alonso Sanchez</t>
+  </si>
+  <si>
+    <t>Electric Star</t>
+  </si>
+  <si>
+    <t>Maria Lourdes Llorente Requena</t>
+  </si>
+  <si>
+    <t>Juan Francisco Martinez Rey</t>
+  </si>
+  <si>
+    <t>Sara Adam</t>
+  </si>
+  <si>
+    <t>Beni Adam</t>
+  </si>
+  <si>
+    <t>Daniel Bulz</t>
+  </si>
+  <si>
+    <t>Sami Adam</t>
+  </si>
+  <si>
+    <t>Dani Adam</t>
+  </si>
+  <si>
+    <t>Iona Adam</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Uleila del Campo</t>
+  </si>
+  <si>
+    <t>Antonio Jose Clemente Requena</t>
+  </si>
+  <si>
+    <t>Miguel Angel Aliaga Venteo</t>
+  </si>
+  <si>
+    <t>Cristian Andrei Radu</t>
+  </si>
+  <si>
+    <t>Rocio Alejandra Carrion Golzalez</t>
+  </si>
+  <si>
+    <t>Rogelio Artero Garcia</t>
+  </si>
+  <si>
+    <t>Antonio Rueda Perez</t>
+  </si>
+  <si>
+    <t>Marcos Ramos Martinez</t>
+  </si>
+  <si>
+    <t>Infernux Swager</t>
+  </si>
+  <si>
+    <t>Vicar</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Paco Canton</t>
+  </si>
+  <si>
+    <t>Laura Rodríguez Blanque</t>
+  </si>
+  <si>
+    <t>Jose  Manuel Rodríguez Blanque</t>
+  </si>
+  <si>
+    <t>Patri Cristina Danciu</t>
+  </si>
+  <si>
+    <t>JuanRa Puerta Jimenez</t>
+  </si>
+  <si>
+    <t>Manu Puerta Jimenez</t>
+  </si>
+  <si>
+    <t>Dani Puerta Jimenez</t>
+  </si>
+  <si>
+    <t>Destroyers plus</t>
+  </si>
+  <si>
+    <t>Sergio García Rodríguez</t>
+  </si>
+  <si>
+    <t>Dani Antunes Martínez</t>
+  </si>
+  <si>
+    <t>Leyre Izpura López</t>
+  </si>
+  <si>
+    <t>Javi Izpura López</t>
+  </si>
+  <si>
+    <t>Mario Mañas García</t>
+  </si>
+  <si>
+    <t>TecnoEquipo</t>
+  </si>
+  <si>
+    <t>El Ejido</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Ruben Gomez</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>RoboEquipo</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>JJYH</t>
+  </si>
+  <si>
+    <t>Juan Luis Martin Fernández</t>
+  </si>
+  <si>
+    <t>Helio</t>
+  </si>
+  <si>
+    <t>Yulia</t>
+  </si>
+  <si>
+    <t>Joaquín Mateo Martín</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Roberto LUCAS ESPINOSA</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Asacal Almería 2</t>
+  </si>
+  <si>
+    <t>Almería</t>
+  </si>
+  <si>
+    <t>Pablo BELMONTE PEREZ</t>
+  </si>
+  <si>
+    <t>Alvaro  Molina Alvarez</t>
+  </si>
+  <si>
+    <t>RUBÉN PÉREZ VALVERDE</t>
+  </si>
+  <si>
+    <t>Juanjo</t>
+  </si>
+  <si>
+    <t>Maxím</t>
+  </si>
+  <si>
+    <t>Bauti</t>
+  </si>
+  <si>
+    <t>Los robochachis</t>
+  </si>
+  <si>
+    <t>María Díaz Maldonado</t>
+  </si>
+  <si>
+    <t>Iris Serrano Rodríguez</t>
+  </si>
+  <si>
+    <t>José Luis Barco Padilla</t>
+  </si>
+  <si>
+    <t>Daniel Pintos Ruiz</t>
+  </si>
+  <si>
+    <t>Pecho Cuchillo electrónico</t>
+  </si>
+  <si>
+    <t>Dalias</t>
+  </si>
+  <si>
+    <t>Yarida Rodríguez Martín</t>
+  </si>
+  <si>
+    <t>Yeray Rodríguez Martín</t>
+  </si>
+  <si>
+    <t>Christian Sanchez Espinosa</t>
+  </si>
+  <si>
+    <t>Elias López Galvez</t>
+  </si>
+  <si>
+    <t>IES Campos de Nijar</t>
+  </si>
+  <si>
+    <t>Nijar</t>
+  </si>
+  <si>
+    <t>Jose Juan Sánchez Hernández</t>
+  </si>
+  <si>
+    <t>Cristian Georgian Vica</t>
+  </si>
+  <si>
+    <t>Ángel Mañas González</t>
+  </si>
+  <si>
+    <t>Samuel Mañas González</t>
+  </si>
+  <si>
+    <t>Charaf Eddim Bennis Abovel Kacim</t>
+  </si>
+  <si>
+    <t>AntonioAlejandro Ruiz</t>
+  </si>
+  <si>
+    <t>Luis Miguel Garnica Martín</t>
+  </si>
+  <si>
+    <t>KlinWare</t>
+  </si>
+  <si>
+    <t>Exhibición</t>
+  </si>
+  <si>
+    <t>Votos Totales</t>
+  </si>
+  <si>
+    <t>Cristo Contreras Rubio</t>
+  </si>
+  <si>
+    <t>Cardenal Cisneros</t>
+  </si>
+  <si>
+    <t>Ambrosio Benedicto García</t>
+  </si>
+  <si>
     <t>Antonio Jesús De Haro Fernández</t>
   </si>
   <si>
     <t>Antonio Collado Pérez</t>
-  </si>
-  <si>
-    <t>JarosoB</t>
-  </si>
-  <si>
-    <t>Maria Tejeira</t>
-  </si>
-  <si>
-    <t>Reme</t>
-  </si>
-  <si>
-    <t>Pedro Navarro Carmona</t>
-  </si>
-  <si>
-    <t>Marcos Cintas Navarro</t>
-  </si>
-  <si>
-    <t>Manuel Esteban Uroz</t>
-  </si>
-  <si>
-    <t>Francisco Jesús Durán Latorre</t>
-  </si>
-  <si>
-    <t>Miguel Gerez de Paco</t>
-  </si>
-  <si>
-    <t>Francisco Guevara Navarro</t>
-  </si>
-  <si>
-    <t>Los Tornados</t>
-  </si>
-  <si>
-    <t>Competicion</t>
-  </si>
-  <si>
-    <t>Maria Tejira</t>
-  </si>
-  <si>
-    <t>Victoria Hernández Mesas</t>
-  </si>
-  <si>
-    <t>Juan Andrés García Perez</t>
-  </si>
-  <si>
-    <t>Adrián Hernández Mesas</t>
-  </si>
-  <si>
-    <t>Adriana Perez Gallardo</t>
-  </si>
-  <si>
-    <t>Adrián Jódar Pérez</t>
-  </si>
-  <si>
-    <t>TRASHBOX</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Damián</t>
-  </si>
-  <si>
-    <t>Manuel López de Hierro Ruiz</t>
-  </si>
-  <si>
-    <t>Basilio Escudero Jiménez</t>
-  </si>
-  <si>
-    <t>Tomas Soto Cano</t>
-  </si>
-  <si>
-    <t>Fernando Jódar Rubio</t>
-  </si>
-  <si>
-    <t>Florin Catalín Baloiu</t>
-  </si>
-  <si>
-    <t>Pedro Aliaga Segura</t>
-  </si>
-  <si>
-    <t>Jose María Teruel Oller</t>
-  </si>
-  <si>
-    <t>Sugar X</t>
-  </si>
-  <si>
-    <t>Sorbas</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Marina</t>
-  </si>
-  <si>
-    <t>Rafael Cazorla</t>
-  </si>
-  <si>
-    <t>Agustina Mailen Grigoriadis</t>
-  </si>
-  <si>
-    <t>Yolanda Kate Eccles</t>
-  </si>
-  <si>
-    <t>Phoebe May Eccles</t>
-  </si>
-  <si>
-    <t>Manuel Bonilla Gallardo</t>
-  </si>
-  <si>
-    <t>Marlon Nicolas Carrera Jara</t>
-  </si>
-  <si>
-    <t>Jacob John Hill</t>
-  </si>
-  <si>
-    <t>Prince Robots</t>
-  </si>
-  <si>
-    <t>Cristóbal Jesus Garcia Esteban</t>
-  </si>
-  <si>
-    <t>Maria Fenoy García</t>
-  </si>
-  <si>
-    <t>Juan Martínez Fernández</t>
-  </si>
-  <si>
-    <t>Pablo Ezequiel Grigoriadis</t>
-  </si>
-  <si>
-    <t>Mohamed Abioni</t>
-  </si>
-  <si>
-    <t>Alejandro Alonso Sanchez</t>
-  </si>
-  <si>
-    <t>Electric Star</t>
-  </si>
-  <si>
-    <t>Maria Lourdes Llorente Requena</t>
-  </si>
-  <si>
-    <t>Juan Francisco Martinez Rey</t>
-  </si>
-  <si>
-    <t>Sara Adam</t>
-  </si>
-  <si>
-    <t>Beni Adam</t>
-  </si>
-  <si>
-    <t>Daniel Bulz</t>
-  </si>
-  <si>
-    <t>Sami Adam</t>
-  </si>
-  <si>
-    <t>Dani Adam</t>
-  </si>
-  <si>
-    <t>Iona Adam</t>
-  </si>
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>Uleila del Campo</t>
-  </si>
-  <si>
-    <t>Antonio Jose Clemente Requena</t>
-  </si>
-  <si>
-    <t>Miguel Angel Aliaga Venteo</t>
-  </si>
-  <si>
-    <t>Cristian Andrei Radu</t>
-  </si>
-  <si>
-    <t>Rocio Alejandra Carrion Golzalez</t>
-  </si>
-  <si>
-    <t>Rogelio Artero Garcia</t>
-  </si>
-  <si>
-    <t>Antonio Rueda Perez</t>
-  </si>
-  <si>
-    <t>Marcos Ramos Martinez</t>
-  </si>
-  <si>
-    <t>Infernux Swager</t>
-  </si>
-  <si>
-    <t>Roquetas</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Marcos</t>
-  </si>
-  <si>
-    <t>Paco Canton</t>
-  </si>
-  <si>
-    <t>Laura Rodríguez Blanque</t>
-  </si>
-  <si>
-    <t>Jose  Manuel Rodríguez Blanque</t>
-  </si>
-  <si>
-    <t>Patri Cristina Danciu</t>
-  </si>
-  <si>
-    <t>JuanRa Puerta Jimenez</t>
-  </si>
-  <si>
-    <t>Manu Puerta Jimenez</t>
-  </si>
-  <si>
-    <t>Dani Puerta Jimenez</t>
-  </si>
-  <si>
-    <t>Destroyers plus</t>
-  </si>
-  <si>
-    <t>Sergio García Rodríguez</t>
-  </si>
-  <si>
-    <t>Dani Antunes Martínez</t>
-  </si>
-  <si>
-    <t>Leyre Izpura López</t>
-  </si>
-  <si>
-    <t>Javi Izpura López</t>
-  </si>
-  <si>
-    <t>Mario Mañas García</t>
-  </si>
-  <si>
-    <t>TecnoEquipo</t>
-  </si>
-  <si>
-    <t>El Ejido</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Ruben Gomez</t>
-  </si>
-  <si>
-    <t>Mara</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Martín</t>
-  </si>
-  <si>
-    <t>RoboEquipo</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>JJYH</t>
-  </si>
-  <si>
-    <t>Juan Luis Martin Fernández</t>
-  </si>
-  <si>
-    <t>Helio</t>
-  </si>
-  <si>
-    <t>Yulia</t>
-  </si>
-  <si>
-    <t>Joaquín Mateo Martín</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Roberto LUCAS ESPINOSA</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Los robochachis</t>
-  </si>
-  <si>
-    <t>Almería</t>
-  </si>
-  <si>
-    <t>María Díaz Maldonado</t>
-  </si>
-  <si>
-    <t>Iris Serrano Rodríguez</t>
-  </si>
-  <si>
-    <t>José Luis Barco Padilla</t>
-  </si>
-  <si>
-    <t>Daniel Pintos Ruiz</t>
-  </si>
-  <si>
-    <t>Asacal Almería 2</t>
-  </si>
-  <si>
-    <t>Pablo BELMONTE PEREZ</t>
-  </si>
-  <si>
-    <t>Alvaro  Molina Alvarez</t>
-  </si>
-  <si>
-    <t>Mauro Ale Serrabona</t>
-  </si>
-  <si>
-    <t>RUBÉN PÉREZ VALVERDE</t>
-  </si>
-  <si>
-    <t>Juanjo</t>
-  </si>
-  <si>
-    <t>Maxím</t>
-  </si>
-  <si>
-    <t>Bauti</t>
-  </si>
-  <si>
-    <t>Pecho Cuchillo electrónico</t>
-  </si>
-  <si>
-    <t>Dalias</t>
-  </si>
-  <si>
-    <t>Yarida Rodríguez Martín</t>
-  </si>
-  <si>
-    <t>Yeray Rodríguez Martín</t>
-  </si>
-  <si>
-    <t>Christian Sanchez Espinosa</t>
-  </si>
-  <si>
-    <t>Francisco Pérez Ibáñez</t>
-  </si>
-  <si>
-    <t>Elias López Galvez</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>IES Campos de Nijar</t>
-  </si>
-  <si>
-    <t>Nijar</t>
-  </si>
-  <si>
-    <t>Jose Juan Sánchez Hernández</t>
-  </si>
-  <si>
-    <t>Cristian Georgian Vica</t>
-  </si>
-  <si>
-    <t>Pablo Pérez Garcí</t>
-  </si>
-  <si>
-    <t>Joaquín Membrives Haro</t>
-  </si>
-  <si>
-    <t>Ángel Mañas González</t>
-  </si>
-  <si>
-    <t>Samuel Mañas González</t>
-  </si>
-  <si>
-    <t>Charaf Eddim Bennis Abovel Kacim</t>
-  </si>
-  <si>
-    <t>Joaquín, Membrives Haro</t>
-  </si>
-  <si>
-    <t>Luis Miguel Garnica Martín</t>
-  </si>
-  <si>
-    <t>KlinWare</t>
-  </si>
-  <si>
-    <t>Exhibición</t>
-  </si>
-  <si>
-    <t>Votos Totales</t>
-  </si>
-  <si>
-    <t>Cristo Contreras Rubio</t>
-  </si>
-  <si>
-    <t>Cardenal Cisneros</t>
-  </si>
-  <si>
-    <t>Ambrosio Benedicto García</t>
   </si>
   <si>
     <t>Crystal Byte</t>
@@ -800,7 +776,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Clasificado </t>
+      <t xml:space="preserve">Clasificado</t>
     </r>
   </si>
   <si>
@@ -832,7 +808,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Clasificado</t>
+      <t xml:space="preserve">Clasificado</t>
     </r>
   </si>
   <si>
@@ -853,7 +829,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="MM:SS"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -880,6 +856,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -912,7 +896,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +907,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCC99"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -978,7 +968,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1003,7 +993,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1015,27 +1009,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,9 +1057,9 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF336600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF669933"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCC99"/>
@@ -1084,7 +1082,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFCCFF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1092,7 +1090,7 @@
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF99CC66"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1114,24 +1112,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,13 +1173,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00087962962962963</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1193,13 +1192,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00106481481481481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,48 +1206,50 @@
         <v>15</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.0030787037037037</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>19</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1257,23 +1258,23 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -1281,7 +1282,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>14</v>
@@ -1289,7 +1290,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -1297,7 +1298,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>14</v>
@@ -1305,7 +1306,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1313,7 +1314,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>14</v>
@@ -1321,7 +1322,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
@@ -1329,31 +1330,25 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>15</v>
-      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -1361,7 +1356,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -1369,7 +1364,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1377,7 +1372,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -1385,7 +1380,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
@@ -1393,7 +1388,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0</v>
@@ -1401,7 +1396,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
@@ -1409,7 +1404,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -1417,7 +1412,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -1437,24 +1432,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1497,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000787037037037037</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1514,13 +1510,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00208333333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,47 +1527,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00208333333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -1585,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -1599,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1613,7 +1619,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -1624,38 +1630,26 @@
         <v>122</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -1663,7 +1657,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -1679,7 +1673,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -1687,7 +1681,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -1695,7 +1689,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -1711,7 +1705,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -1731,24 +1725,25 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.02551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1791,13 +1786,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00162037037037037</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1808,13 +1803,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00162037037037037</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,47 +1820,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00138888888888889</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -1873,13 +1878,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -1887,13 +1892,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1901,13 +1906,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -1915,41 +1920,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -1957,7 +1950,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1965,7 +1958,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -1973,7 +1966,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -1981,7 +1974,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -1989,7 +1982,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1997,7 +1990,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -2005,7 +1998,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -2025,24 +2018,25 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -2085,13 +2079,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000856481481481482</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2102,13 +2096,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00219907407407407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,47 +2113,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00099537037037037</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -2167,13 +2171,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -2181,13 +2185,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -2195,13 +2199,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -2209,13 +2213,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -2223,13 +2227,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -2237,13 +2241,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -2251,13 +2255,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -2265,7 +2269,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2273,7 +2277,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -2281,7 +2285,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -2289,7 +2293,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -2297,7 +2301,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -2305,7 +2309,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -2325,24 +2329,25 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -2373,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2385,13 +2390,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000810185185185185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2402,13 +2407,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.000694444444444444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,47 +2424,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00237268518518519</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -2467,13 +2482,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -2481,13 +2496,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -2495,13 +2510,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -2509,13 +2524,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -2523,13 +2538,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -2537,13 +2552,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -2551,7 +2566,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -2559,7 +2574,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2567,7 +2582,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -2575,7 +2590,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -2583,7 +2598,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -2591,7 +2606,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -2599,7 +2614,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -2619,24 +2634,25 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFCCFF99"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -2667,42 +2683,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00208333333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.000972222222222222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,47 +2729,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00140046296296296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -2761,13 +2787,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -2775,13 +2801,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -2789,13 +2815,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -2803,27 +2829,27 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -2831,13 +2857,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -2845,7 +2871,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -2853,7 +2879,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2861,7 +2887,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -2869,7 +2895,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -2877,7 +2903,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -2885,7 +2911,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -2893,7 +2919,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -2913,24 +2939,25 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -2961,42 +2988,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00208333333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.000810185185185185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,47 +3034,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00087962962962963</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -3055,13 +3092,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -3069,13 +3106,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -3086,7 +3123,7 @@
         <v>116</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -3094,13 +3131,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -3108,13 +3145,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -3122,13 +3159,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -3136,7 +3173,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -3144,7 +3181,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -3152,7 +3189,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -3160,7 +3197,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -3168,7 +3205,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -3176,15 +3213,15 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -3204,24 +3241,25 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.86734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -3252,42 +3290,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,47 +3336,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00137731481481481</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -3346,10 +3394,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -3357,10 +3405,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -3368,10 +3416,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -3379,10 +3427,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -3390,10 +3438,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>172</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -3401,15 +3449,15 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -3417,7 +3465,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -3425,7 +3473,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -3433,7 +3481,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -3441,7 +3489,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -3449,7 +3497,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -3457,7 +3505,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -3478,24 +3526,25 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.71428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -3526,42 +3575,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00188657407407407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,47 +3621,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00263888888888889</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -3620,10 +3679,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -3631,10 +3690,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -3642,29 +3701,26 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -3672,7 +3728,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -3680,15 +3736,15 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -3696,7 +3752,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -3704,7 +3760,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -3712,7 +3768,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -3720,7 +3776,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -3728,7 +3784,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -3749,24 +3805,25 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.86734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -3797,42 +3854,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00112268518518519</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.0015625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,47 +3900,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -3891,10 +3958,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -3902,10 +3969,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -3913,10 +3980,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -3924,18 +3991,18 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>181</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -3943,7 +4010,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -3951,7 +4018,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -3959,7 +4026,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -3967,7 +4034,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -3975,7 +4042,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -3983,7 +4050,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -3991,7 +4058,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -3999,10 +4066,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4019,24 +4086,25 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.48469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4067,42 +4135,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.0021412037037037</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00109953703703704</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,47 +4181,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.0012962962962963</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -4161,10 +4239,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -4172,10 +4250,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -4183,26 +4261,26 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -4210,7 +4288,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -4218,7 +4296,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -4226,7 +4304,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -4234,7 +4312,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -4242,7 +4320,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -4250,7 +4328,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -4258,7 +4336,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -4266,7 +4344,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -4286,24 +4364,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF336600"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.48469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4334,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4346,13 +4425,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00145833333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4363,13 +4442,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00113425925925926</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,47 +4459,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00131944444444444</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -4428,13 +4517,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -4442,13 +4531,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -4456,13 +4545,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
@@ -4470,13 +4559,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
@@ -4484,13 +4573,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -4498,13 +4587,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -4512,7 +4601,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -4520,7 +4609,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -4528,15 +4617,15 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0</v>
@@ -4544,7 +4633,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
@@ -4552,7 +4641,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -4560,7 +4649,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -4580,24 +4669,25 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.71428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4628,42 +4718,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00115740740740741</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00150462962962963</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,47 +4764,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00224537037037037</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -4722,21 +4822,21 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -4744,45 +4844,51 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>191</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>193</v>
+      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -4790,7 +4896,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -4798,7 +4904,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -4806,7 +4912,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -4814,7 +4920,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -4822,7 +4928,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -4830,7 +4936,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -4850,24 +4956,25 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4898,42 +5005,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00121527777777778</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,47 +5051,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00240740740740741</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -4992,10 +5109,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -5003,10 +5120,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -5014,10 +5131,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -5025,43 +5142,34 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>198</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>204</v>
-      </c>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -5069,7 +5177,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -5077,7 +5185,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -5085,7 +5193,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -5093,7 +5201,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -5101,7 +5209,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -5109,7 +5217,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -5129,24 +5237,25 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -5177,42 +5286,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00137731481481481</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00118055555555556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,47 +5332,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00112268518518519</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -5271,13 +5390,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -5285,13 +5404,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -5299,13 +5418,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -5313,41 +5432,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>16</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -5355,7 +5462,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -5363,7 +5470,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -5371,7 +5478,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -5379,7 +5486,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -5387,7 +5494,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -5395,7 +5502,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -5403,7 +5510,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -5423,24 +5530,25 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.71428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -5471,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5483,13 +5591,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000763888888888889</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5500,13 +5608,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.000636574074074074</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,47 +5625,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00109953703703704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -5565,13 +5683,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -5579,13 +5697,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -5593,13 +5711,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -5607,27 +5725,24 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>212</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -5635,35 +5750,26 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>223</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -5671,7 +5777,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -5679,7 +5785,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -5687,15 +5793,15 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -5703,7 +5809,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -5723,24 +5829,25 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.5918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,19 +5855,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,53 +5875,59 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -5822,10 +5935,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5842,24 +5955,25 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,19 +5981,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,53 +6001,59 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -5941,15 +6061,15 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>17</v>
@@ -5969,24 +6089,25 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>0</v>
@@ -6014,53 +6135,59 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -6068,15 +6195,15 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>16</v>
@@ -6084,7 +6211,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>16</v>
@@ -6092,7 +6219,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
@@ -6100,7 +6227,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>16</v>
@@ -6108,16 +6235,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="n">
@@ -6138,24 +6265,25 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,19 +6291,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,53 +6311,59 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -6237,15 +6371,15 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14</v>
@@ -6253,7 +6387,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
@@ -6261,7 +6395,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -6269,7 +6403,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>13</v>
@@ -6277,7 +6411,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
@@ -6285,7 +6419,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -6305,24 +6439,25 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,19 +6465,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,48 +6490,54 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>0</v>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -6404,15 +6545,15 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>43</v>
@@ -6420,7 +6561,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>33</v>
@@ -6428,7 +6569,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>28</v>
@@ -6436,7 +6577,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>28</v>
@@ -6456,24 +6597,25 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD26" activeCellId="0" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6481,19 +6623,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6501,69 +6643,75 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
@@ -6571,7 +6719,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
@@ -6579,7 +6727,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>7</v>
@@ -6587,7 +6735,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>7</v>
@@ -6595,7 +6743,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>11</v>
@@ -6603,7 +6751,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>7</v>
@@ -6611,7 +6759,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
@@ -6631,24 +6779,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -6679,42 +6828,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="n">
-        <v>0</v>
+      <c r="H2" s="9" t="n">
+        <v>0.000902777777777778</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
+      <c r="H3" s="9" t="n">
+        <v>0.000775462962962963</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,47 +6874,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.00269675925925926</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -6773,13 +6932,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -6787,13 +6946,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -6801,13 +6960,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -6815,13 +6974,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -6829,13 +6988,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -6843,29 +7002,35 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -6873,7 +7038,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -6881,7 +7046,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -6889,7 +7054,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -6897,7 +7062,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -6905,7 +7070,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -6929,192 +7094,192 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>225</v>
+      <c r="E1" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="E13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
+      <c r="A17" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
+      <c r="A18" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -7131,24 +7296,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFCCFF99"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -7179,42 +7345,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00277777777777778</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
+      <c r="H3" s="9" t="n">
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,49 +7391,59 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -7275,13 +7451,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -7289,13 +7465,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -7303,13 +7479,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -7317,13 +7493,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -7331,24 +7507,26 @@
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -7356,7 +7534,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -7364,7 +7542,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -7372,7 +7550,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -7380,7 +7558,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -7388,7 +7566,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -7396,7 +7574,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -7404,7 +7582,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -7424,24 +7602,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFCCFF99"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.71428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -7472,42 +7651,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.000659722222222222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,47 +7697,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.000625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -7566,13 +7755,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -7580,13 +7769,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -7594,13 +7783,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -7608,27 +7797,21 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -7636,7 +7819,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -7644,7 +7827,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -7652,7 +7835,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -7660,7 +7843,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -7668,15 +7851,15 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -7684,7 +7867,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -7692,7 +7875,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -7712,24 +7895,25 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFCCFF99"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -7760,7 +7944,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7772,13 +7956,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00114583333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7789,13 +7973,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00115740740740741</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,47 +7990,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00114583333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -7854,13 +8048,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -7868,13 +8062,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -7882,13 +8076,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -7896,41 +8090,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -7938,7 +8120,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -7946,7 +8128,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -7954,7 +8136,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -7962,7 +8144,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -7970,7 +8152,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -7978,7 +8160,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -7986,7 +8168,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -8006,24 +8188,25 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFCCFF99"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.94387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8031,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -8054,42 +8237,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00190972222222222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,61 +8283,71 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.000891203703703704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -8162,13 +8355,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -8176,13 +8369,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -8190,41 +8383,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -8232,7 +8413,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -8240,7 +8421,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -8248,7 +8429,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -8256,7 +8437,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -8264,7 +8445,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -8272,7 +8453,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -8280,7 +8461,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -8300,24 +8481,25 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF669933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.02551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8325,13 +8507,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -8348,42 +8530,42 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.00262731481481481</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.00256944444444444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,47 +8576,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.00347222222222222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -8442,13 +8634,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -8456,49 +8648,37 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -8506,7 +8686,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -8514,7 +8694,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -8522,15 +8702,15 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -8538,7 +8718,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -8546,7 +8726,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -8554,7 +8734,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -8562,7 +8742,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -8582,24 +8762,25 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF99CC66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8613,7 +8794,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -8630,7 +8811,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8642,13 +8823,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.000636574074074074</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8659,13 +8840,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.000694444444444444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,47 +8857,57 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>0.000636574074074074</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(F2:F4)</f>
-        <v>0</v>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -8730,7 +8921,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -8744,10 +8935,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8758,7 +8949,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -8771,8 +8962,8 @@
       <c r="B13" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -8785,8 +8976,8 @@
       <c r="B14" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -8800,7 +8991,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
@@ -8808,7 +8999,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -8816,7 +9007,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -8824,7 +9015,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -8832,7 +9023,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
@@ -8840,7 +9031,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -8848,7 +9039,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -8856,7 +9047,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
